--- a/OREI_files/40-herd data/notes_on_converting_40herd_csv_for_FAMD.xlsx
+++ b/OREI_files/40-herd data/notes_on_converting_40herd_csv_for_FAMD.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c792ef73e4c0296d/Documents/OREI files and Git repo/OREI_Git/OREI_files/40-herd data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="33" documentId="8_{2119FF4E-61D9-4A1B-9557-E4F8C4C74C82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3B350B4F-277C-4505-A8BC-517AA11096BE}"/>
+  <xr:revisionPtr revIDLastSave="51" documentId="8_{2119FF4E-61D9-4A1B-9557-E4F8C4C74C82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{709EDDE5-CF13-4271-9FCA-978C160DE5C0}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{89787B7E-8778-42B7-978D-948B931510A7}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{89787B7E-8778-42B7-978D-948B931510A7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="justBP" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
+    <sheet name="justBP" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="128">
   <si>
     <t>columns deleted</t>
   </si>
@@ -392,13 +393,25 @@
     <t>remove within R bc too specific/all the same:</t>
   </si>
   <si>
-    <t>_ should maybe take out freq stall scraping per week, standardize freq adding bedding to stall between BP and other systems?</t>
-  </si>
-  <si>
-    <t>_ just make NA's in categorical variables their own level of not missing data (i.e. for parlor type for Hall and Breen, just put robot instead of "NA")</t>
-  </si>
-  <si>
     <t xml:space="preserve">_ "40herd_reduced_bedding_25_nocatNA" substituted different answers for NA in categorical variables, set all deep bedding to 25 cm, deleted freq adding bedding to stalls and stall scraping </t>
+  </si>
+  <si>
+    <t>_ took out freq stall scraping per week (NA for bedded packs), standardized freq adding bedding to stall between BP and other systems by calling 25 cm</t>
+  </si>
+  <si>
+    <t>_ made NA's in categorical variables their own level of not missing data (i.e. for parlor type for Hall and Breen, just put robot instead of "NA")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_ took  file "40herd_reduced_bedding25," where subbed 25 cm for bedding depth and took out columns identified at left, and edited to make appropriate for FAMD, described below </t>
+  </si>
+  <si>
+    <t>_ imputation using missMDA package?</t>
+  </si>
+  <si>
+    <t>_ correlation plot: positively correlated groupoed together in same quadrant, but which quadrants exactly are they NEGATIVELY correlated - only opposite quadrants? or adjacent quadrants?</t>
+  </si>
+  <si>
+    <t>_ can two variables strongly correlated be in there together? i.e., herd_size_cat and herd_size; scc_cat and milk_SCC</t>
   </si>
 </sst>
 </file>
@@ -431,7 +444,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -439,11 +452,91 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -452,7 +545,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -779,8 +896,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61D78715-4E1B-4268-A161-3907A6F3DF08}">
   <dimension ref="A2:X63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I4" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView topLeftCell="H1" zoomScale="77" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2:R6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -789,7 +906,7 @@
     <col min="9" max="9" width="7" customWidth="1"/>
     <col min="10" max="10" width="8.7265625" hidden="1" customWidth="1"/>
     <col min="18" max="18" width="12.6328125" customWidth="1"/>
-    <col min="19" max="19" width="48.08984375" customWidth="1"/>
+    <col min="19" max="19" width="80.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:24" x14ac:dyDescent="0.35">
@@ -865,7 +982,7 @@
       <c r="W7" s="2"/>
       <c r="X7" s="2"/>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:24" ht="30.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -953,6 +1070,9 @@
       <c r="E13" t="s">
         <v>66</v>
       </c>
+      <c r="K13" t="s">
+        <v>124</v>
+      </c>
       <c r="T13" s="2"/>
       <c r="U13" s="2"/>
       <c r="V13" s="2"/>
@@ -967,7 +1087,7 @@
         <v>68</v>
       </c>
       <c r="K14" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="T14" s="2"/>
       <c r="U14" s="2"/>
@@ -983,7 +1103,7 @@
         <v>69</v>
       </c>
       <c r="K15" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.35">
@@ -1001,7 +1121,7 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>12</v>
       </c>
@@ -1022,16 +1142,16 @@
         <v>73</v>
       </c>
       <c r="K18" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="L18" s="4"/>
-      <c r="M18" s="4"/>
-      <c r="N18" s="4"/>
-      <c r="O18" s="4"/>
-      <c r="P18" s="4"/>
-      <c r="Q18" s="4"/>
-      <c r="R18" s="4"/>
-      <c r="S18" s="4"/>
+        <v>121</v>
+      </c>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="5"/>
+      <c r="R18" s="5"/>
+      <c r="S18" s="6"/>
       <c r="T18" s="3"/>
       <c r="U18" s="3"/>
       <c r="V18" s="3"/>
@@ -1045,37 +1165,37 @@
       <c r="E19" t="s">
         <v>74</v>
       </c>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
-      <c r="M19" s="4"/>
-      <c r="N19" s="4"/>
-      <c r="O19" s="4"/>
-      <c r="P19" s="4"/>
-      <c r="Q19" s="4"/>
-      <c r="R19" s="4"/>
-      <c r="S19" s="4"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="8"/>
+      <c r="N19" s="8"/>
+      <c r="O19" s="8"/>
+      <c r="P19" s="8"/>
+      <c r="Q19" s="8"/>
+      <c r="R19" s="8"/>
+      <c r="S19" s="9"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>15</v>
       </c>
       <c r="E20" t="s">
         <v>75</v>
       </c>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
-      <c r="M20" s="4"/>
-      <c r="N20" s="4"/>
-      <c r="O20" s="4"/>
-      <c r="P20" s="4"/>
-      <c r="Q20" s="4"/>
-      <c r="R20" s="4"/>
-      <c r="S20" s="4"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="11"/>
+      <c r="M20" s="11"/>
+      <c r="N20" s="11"/>
+      <c r="O20" s="11"/>
+      <c r="P20" s="11"/>
+      <c r="Q20" s="11"/>
+      <c r="R20" s="11"/>
+      <c r="S20" s="12"/>
       <c r="T20" s="3"/>
       <c r="U20" s="3"/>
       <c r="V20" s="3"/>
@@ -1347,6 +1467,41 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18AE78B3-2791-4CDD-9ABE-57C881E37181}">
+  <dimension ref="A1:A5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="82" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3106ECE0-47A3-48F3-B25F-9A54973CE785}">
   <dimension ref="A4:I24"/>
   <sheetViews>
